--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary disjoint (windows,granularity) post adj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8633F5F-CA02-4E0B-ACB5-B007636DEAB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B22DA2C-7BD3-4FE1-9FF4-3F84776DB315}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G785"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A306" sqref="A306:L449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7441,7 +7441,7 @@
         <v>9</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C306">
         <v>5.0000000000000001E-3</v>
@@ -7464,7 +7464,7 @@
         <v>9</v>
       </c>
       <c r="B307">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C307">
         <v>5.0000000000000001E-3</v>
@@ -7487,7 +7487,7 @@
         <v>9</v>
       </c>
       <c r="B308">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C308">
         <v>5.0000000000000001E-3</v>
@@ -7510,7 +7510,7 @@
         <v>9</v>
       </c>
       <c r="B309">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C309">
         <v>0.01</v>
@@ -7533,7 +7533,7 @@
         <v>9</v>
       </c>
       <c r="B310">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C310">
         <v>0.01</v>
@@ -7556,7 +7556,7 @@
         <v>9</v>
       </c>
       <c r="B311">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C311">
         <v>0.01</v>
@@ -7579,7 +7579,7 @@
         <v>9</v>
       </c>
       <c r="B312">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C312">
         <v>0.1</v>
@@ -7602,7 +7602,7 @@
         <v>9</v>
       </c>
       <c r="B313">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C313">
         <v>0.1</v>
@@ -7625,7 +7625,7 @@
         <v>9</v>
       </c>
       <c r="B314">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C314">
         <v>0.1</v>
@@ -7648,7 +7648,7 @@
         <v>9</v>
       </c>
       <c r="B315">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C315">
         <v>5.0000000000000001E-3</v>
@@ -7671,7 +7671,7 @@
         <v>9</v>
       </c>
       <c r="B316">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C316">
         <v>5.0000000000000001E-3</v>
@@ -7694,7 +7694,7 @@
         <v>9</v>
       </c>
       <c r="B317">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C317">
         <v>5.0000000000000001E-3</v>
@@ -7717,7 +7717,7 @@
         <v>9</v>
       </c>
       <c r="B318">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C318">
         <v>0.01</v>
@@ -7740,7 +7740,7 @@
         <v>9</v>
       </c>
       <c r="B319">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C319">
         <v>0.01</v>
@@ -7763,7 +7763,7 @@
         <v>9</v>
       </c>
       <c r="B320">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C320">
         <v>0.01</v>
@@ -7786,7 +7786,7 @@
         <v>9</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C321">
         <v>0.1</v>
@@ -7809,7 +7809,7 @@
         <v>9</v>
       </c>
       <c r="B322">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C322">
         <v>0.1</v>
@@ -7832,7 +7832,7 @@
         <v>9</v>
       </c>
       <c r="B323">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C323">
         <v>0.1</v>
@@ -7855,7 +7855,7 @@
         <v>9</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C324">
         <v>5.0000000000000001E-3</v>
@@ -7878,7 +7878,7 @@
         <v>9</v>
       </c>
       <c r="B325">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C325">
         <v>5.0000000000000001E-3</v>
@@ -7901,7 +7901,7 @@
         <v>9</v>
       </c>
       <c r="B326">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C326">
         <v>5.0000000000000001E-3</v>
@@ -7924,7 +7924,7 @@
         <v>9</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C327">
         <v>0.01</v>
@@ -7947,7 +7947,7 @@
         <v>9</v>
       </c>
       <c r="B328">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C328">
         <v>0.01</v>
@@ -7970,7 +7970,7 @@
         <v>9</v>
       </c>
       <c r="B329">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C329">
         <v>0.01</v>
@@ -7993,7 +7993,7 @@
         <v>9</v>
       </c>
       <c r="B330">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C330">
         <v>0.1</v>
@@ -8016,7 +8016,7 @@
         <v>9</v>
       </c>
       <c r="B331">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C331">
         <v>0.1</v>
@@ -8039,7 +8039,7 @@
         <v>9</v>
       </c>
       <c r="B332">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C332">
         <v>0.1</v>
@@ -8062,7 +8062,7 @@
         <v>9</v>
       </c>
       <c r="B333">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C333">
         <v>5.0000000000000001E-3</v>
@@ -8085,7 +8085,7 @@
         <v>9</v>
       </c>
       <c r="B334">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C334">
         <v>5.0000000000000001E-3</v>
@@ -8108,7 +8108,7 @@
         <v>9</v>
       </c>
       <c r="B335">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C335">
         <v>5.0000000000000001E-3</v>
@@ -8131,7 +8131,7 @@
         <v>9</v>
       </c>
       <c r="B336">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C336">
         <v>0.01</v>
@@ -8154,7 +8154,7 @@
         <v>9</v>
       </c>
       <c r="B337">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C337">
         <v>0.01</v>
@@ -8177,7 +8177,7 @@
         <v>9</v>
       </c>
       <c r="B338">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C338">
         <v>0.01</v>
@@ -8200,7 +8200,7 @@
         <v>9</v>
       </c>
       <c r="B339">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C339">
         <v>0.1</v>
@@ -8223,7 +8223,7 @@
         <v>9</v>
       </c>
       <c r="B340">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C340">
         <v>0.1</v>
@@ -8246,7 +8246,7 @@
         <v>9</v>
       </c>
       <c r="B341">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C341">
         <v>0.1</v>
@@ -8269,7 +8269,7 @@
         <v>9</v>
       </c>
       <c r="B342">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C342">
         <v>5.0000000000000001E-3</v>
@@ -8292,7 +8292,7 @@
         <v>9</v>
       </c>
       <c r="B343">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C343">
         <v>5.0000000000000001E-3</v>
@@ -8315,7 +8315,7 @@
         <v>9</v>
       </c>
       <c r="B344">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C344">
         <v>5.0000000000000001E-3</v>
@@ -8338,7 +8338,7 @@
         <v>9</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C345">
         <v>0.01</v>
@@ -8361,7 +8361,7 @@
         <v>9</v>
       </c>
       <c r="B346">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C346">
         <v>0.01</v>
@@ -8384,7 +8384,7 @@
         <v>9</v>
       </c>
       <c r="B347">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C347">
         <v>0.01</v>
@@ -8407,7 +8407,7 @@
         <v>9</v>
       </c>
       <c r="B348">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C348">
         <v>0.1</v>
@@ -8430,7 +8430,7 @@
         <v>9</v>
       </c>
       <c r="B349">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C349">
         <v>0.1</v>
@@ -8453,7 +8453,7 @@
         <v>9</v>
       </c>
       <c r="B350">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C350">
         <v>0.1</v>
@@ -8476,7 +8476,7 @@
         <v>9</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C351">
         <v>5.0000000000000001E-3</v>
@@ -8499,7 +8499,7 @@
         <v>9</v>
       </c>
       <c r="B352">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C352">
         <v>5.0000000000000001E-3</v>
@@ -8522,7 +8522,7 @@
         <v>9</v>
       </c>
       <c r="B353">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C353">
         <v>5.0000000000000001E-3</v>
@@ -8545,7 +8545,7 @@
         <v>9</v>
       </c>
       <c r="B354">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C354">
         <v>0.01</v>
@@ -8568,7 +8568,7 @@
         <v>9</v>
       </c>
       <c r="B355">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C355">
         <v>0.01</v>
@@ -8591,7 +8591,7 @@
         <v>9</v>
       </c>
       <c r="B356">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C356">
         <v>0.01</v>
@@ -8614,7 +8614,7 @@
         <v>9</v>
       </c>
       <c r="B357">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C357">
         <v>0.1</v>
@@ -8637,7 +8637,7 @@
         <v>9</v>
       </c>
       <c r="B358">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C358">
         <v>0.1</v>
@@ -8660,7 +8660,7 @@
         <v>9</v>
       </c>
       <c r="B359">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C359">
         <v>0.1</v>
@@ -8683,7 +8683,7 @@
         <v>9</v>
       </c>
       <c r="B360">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C360">
         <v>5.0000000000000001E-3</v>
@@ -8706,7 +8706,7 @@
         <v>9</v>
       </c>
       <c r="B361">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C361">
         <v>5.0000000000000001E-3</v>
@@ -8729,7 +8729,7 @@
         <v>9</v>
       </c>
       <c r="B362">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C362">
         <v>5.0000000000000001E-3</v>
@@ -8752,7 +8752,7 @@
         <v>9</v>
       </c>
       <c r="B363">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C363">
         <v>0.01</v>
@@ -8775,7 +8775,7 @@
         <v>9</v>
       </c>
       <c r="B364">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C364">
         <v>0.01</v>
@@ -8798,7 +8798,7 @@
         <v>9</v>
       </c>
       <c r="B365">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C365">
         <v>0.01</v>
@@ -8821,7 +8821,7 @@
         <v>9</v>
       </c>
       <c r="B366">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C366">
         <v>0.1</v>
@@ -8844,7 +8844,7 @@
         <v>9</v>
       </c>
       <c r="B367">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C367">
         <v>0.1</v>
@@ -8867,7 +8867,7 @@
         <v>9</v>
       </c>
       <c r="B368">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C368">
         <v>0.1</v>
@@ -8890,7 +8890,7 @@
         <v>9</v>
       </c>
       <c r="B369">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C369">
         <v>5.0000000000000001E-3</v>
@@ -8913,7 +8913,7 @@
         <v>9</v>
       </c>
       <c r="B370">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C370">
         <v>5.0000000000000001E-3</v>
@@ -8936,7 +8936,7 @@
         <v>9</v>
       </c>
       <c r="B371">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C371">
         <v>5.0000000000000001E-3</v>
@@ -8959,7 +8959,7 @@
         <v>9</v>
       </c>
       <c r="B372">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C372">
         <v>0.01</v>
@@ -8982,7 +8982,7 @@
         <v>9</v>
       </c>
       <c r="B373">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C373">
         <v>0.01</v>
@@ -9005,7 +9005,7 @@
         <v>9</v>
       </c>
       <c r="B374">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C374">
         <v>0.01</v>
@@ -9028,7 +9028,7 @@
         <v>9</v>
       </c>
       <c r="B375">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C375">
         <v>0.1</v>
@@ -9051,7 +9051,7 @@
         <v>9</v>
       </c>
       <c r="B376">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C376">
         <v>0.1</v>
@@ -9074,7 +9074,7 @@
         <v>9</v>
       </c>
       <c r="B377">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C377">
         <v>0.1</v>
@@ -9097,7 +9097,7 @@
         <v>9</v>
       </c>
       <c r="B378">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C378">
         <v>5.0000000000000001E-3</v>
@@ -9120,7 +9120,7 @@
         <v>9</v>
       </c>
       <c r="B379">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C379">
         <v>5.0000000000000001E-3</v>
@@ -9143,7 +9143,7 @@
         <v>9</v>
       </c>
       <c r="B380">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C380">
         <v>5.0000000000000001E-3</v>
@@ -9166,7 +9166,7 @@
         <v>9</v>
       </c>
       <c r="B381">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C381">
         <v>0.01</v>
@@ -9189,7 +9189,7 @@
         <v>9</v>
       </c>
       <c r="B382">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C382">
         <v>0.01</v>
@@ -9212,7 +9212,7 @@
         <v>9</v>
       </c>
       <c r="B383">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C383">
         <v>0.01</v>
@@ -9235,7 +9235,7 @@
         <v>9</v>
       </c>
       <c r="B384">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C384">
         <v>0.1</v>
@@ -9258,7 +9258,7 @@
         <v>9</v>
       </c>
       <c r="B385">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C385">
         <v>0.1</v>
@@ -9281,7 +9281,7 @@
         <v>9</v>
       </c>
       <c r="B386">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C386">
         <v>0.1</v>
@@ -9304,7 +9304,7 @@
         <v>9</v>
       </c>
       <c r="B387">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C387">
         <v>5.0000000000000001E-3</v>
@@ -9327,7 +9327,7 @@
         <v>9</v>
       </c>
       <c r="B388">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C388">
         <v>5.0000000000000001E-3</v>
@@ -9350,7 +9350,7 @@
         <v>9</v>
       </c>
       <c r="B389">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C389">
         <v>5.0000000000000001E-3</v>
@@ -9373,7 +9373,7 @@
         <v>9</v>
       </c>
       <c r="B390">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C390">
         <v>0.01</v>
@@ -9396,7 +9396,7 @@
         <v>9</v>
       </c>
       <c r="B391">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C391">
         <v>0.01</v>
@@ -9419,7 +9419,7 @@
         <v>9</v>
       </c>
       <c r="B392">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C392">
         <v>0.01</v>
@@ -9442,7 +9442,7 @@
         <v>9</v>
       </c>
       <c r="B393">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C393">
         <v>0.1</v>
@@ -9465,7 +9465,7 @@
         <v>9</v>
       </c>
       <c r="B394">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C394">
         <v>0.1</v>
@@ -9488,7 +9488,7 @@
         <v>9</v>
       </c>
       <c r="B395">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C395">
         <v>0.1</v>
@@ -9511,7 +9511,7 @@
         <v>9</v>
       </c>
       <c r="B396">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C396">
         <v>5.0000000000000001E-3</v>
@@ -9534,7 +9534,7 @@
         <v>9</v>
       </c>
       <c r="B397">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C397">
         <v>5.0000000000000001E-3</v>
@@ -9557,7 +9557,7 @@
         <v>9</v>
       </c>
       <c r="B398">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C398">
         <v>5.0000000000000001E-3</v>
@@ -9580,7 +9580,7 @@
         <v>9</v>
       </c>
       <c r="B399">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C399">
         <v>0.01</v>
@@ -9603,7 +9603,7 @@
         <v>9</v>
       </c>
       <c r="B400">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C400">
         <v>0.01</v>
@@ -9626,7 +9626,7 @@
         <v>9</v>
       </c>
       <c r="B401">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C401">
         <v>0.01</v>
@@ -9649,7 +9649,7 @@
         <v>9</v>
       </c>
       <c r="B402">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C402">
         <v>0.1</v>
@@ -9672,7 +9672,7 @@
         <v>9</v>
       </c>
       <c r="B403">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C403">
         <v>0.1</v>
@@ -9695,7 +9695,7 @@
         <v>9</v>
       </c>
       <c r="B404">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C404">
         <v>0.1</v>
@@ -9718,7 +9718,7 @@
         <v>9</v>
       </c>
       <c r="B405">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C405">
         <v>5.0000000000000001E-3</v>
@@ -9741,7 +9741,7 @@
         <v>9</v>
       </c>
       <c r="B406">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C406">
         <v>5.0000000000000001E-3</v>
@@ -9764,7 +9764,7 @@
         <v>9</v>
       </c>
       <c r="B407">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C407">
         <v>5.0000000000000001E-3</v>
@@ -9787,7 +9787,7 @@
         <v>9</v>
       </c>
       <c r="B408">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C408">
         <v>0.01</v>
@@ -9810,7 +9810,7 @@
         <v>9</v>
       </c>
       <c r="B409">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C409">
         <v>0.01</v>
@@ -9833,7 +9833,7 @@
         <v>9</v>
       </c>
       <c r="B410">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C410">
         <v>0.01</v>
@@ -9856,7 +9856,7 @@
         <v>9</v>
       </c>
       <c r="B411">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C411">
         <v>0.1</v>
@@ -9879,7 +9879,7 @@
         <v>9</v>
       </c>
       <c r="B412">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C412">
         <v>0.1</v>
@@ -9902,7 +9902,7 @@
         <v>9</v>
       </c>
       <c r="B413">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C413">
         <v>0.1</v>
@@ -9925,7 +9925,7 @@
         <v>9</v>
       </c>
       <c r="B414">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C414">
         <v>5.0000000000000001E-3</v>
@@ -9948,7 +9948,7 @@
         <v>9</v>
       </c>
       <c r="B415">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C415">
         <v>5.0000000000000001E-3</v>
@@ -9971,7 +9971,7 @@
         <v>9</v>
       </c>
       <c r="B416">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C416">
         <v>5.0000000000000001E-3</v>
@@ -9994,7 +9994,7 @@
         <v>9</v>
       </c>
       <c r="B417">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C417">
         <v>0.01</v>
@@ -10017,7 +10017,7 @@
         <v>9</v>
       </c>
       <c r="B418">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C418">
         <v>0.01</v>
@@ -10040,7 +10040,7 @@
         <v>9</v>
       </c>
       <c r="B419">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C419">
         <v>0.01</v>
@@ -10063,7 +10063,7 @@
         <v>9</v>
       </c>
       <c r="B420">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C420">
         <v>0.1</v>
@@ -10086,7 +10086,7 @@
         <v>9</v>
       </c>
       <c r="B421">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C421">
         <v>0.1</v>
@@ -10109,7 +10109,7 @@
         <v>9</v>
       </c>
       <c r="B422">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C422">
         <v>0.1</v>
@@ -10132,7 +10132,7 @@
         <v>9</v>
       </c>
       <c r="B423">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C423">
         <v>5.0000000000000001E-3</v>
@@ -10155,7 +10155,7 @@
         <v>9</v>
       </c>
       <c r="B424">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C424">
         <v>5.0000000000000001E-3</v>
@@ -10178,7 +10178,7 @@
         <v>9</v>
       </c>
       <c r="B425">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C425">
         <v>5.0000000000000001E-3</v>
@@ -10201,7 +10201,7 @@
         <v>9</v>
       </c>
       <c r="B426">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C426">
         <v>0.01</v>
@@ -10224,7 +10224,7 @@
         <v>9</v>
       </c>
       <c r="B427">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C427">
         <v>0.01</v>
@@ -10247,7 +10247,7 @@
         <v>9</v>
       </c>
       <c r="B428">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C428">
         <v>0.01</v>
@@ -10270,7 +10270,7 @@
         <v>9</v>
       </c>
       <c r="B429">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C429">
         <v>0.1</v>
@@ -10293,7 +10293,7 @@
         <v>9</v>
       </c>
       <c r="B430">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C430">
         <v>0.1</v>
@@ -10316,7 +10316,7 @@
         <v>9</v>
       </c>
       <c r="B431">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C431">
         <v>0.1</v>
@@ -10339,7 +10339,7 @@
         <v>9</v>
       </c>
       <c r="B432">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C432">
         <v>5.0000000000000001E-3</v>
@@ -10362,7 +10362,7 @@
         <v>9</v>
       </c>
       <c r="B433">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C433">
         <v>5.0000000000000001E-3</v>
@@ -10385,7 +10385,7 @@
         <v>9</v>
       </c>
       <c r="B434">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C434">
         <v>5.0000000000000001E-3</v>
@@ -10408,7 +10408,7 @@
         <v>9</v>
       </c>
       <c r="B435">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C435">
         <v>0.01</v>
@@ -10431,7 +10431,7 @@
         <v>9</v>
       </c>
       <c r="B436">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C436">
         <v>0.01</v>
@@ -10454,7 +10454,7 @@
         <v>9</v>
       </c>
       <c r="B437">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C437">
         <v>0.01</v>
@@ -10477,7 +10477,7 @@
         <v>9</v>
       </c>
       <c r="B438">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C438">
         <v>0.1</v>
@@ -10500,7 +10500,7 @@
         <v>9</v>
       </c>
       <c r="B439">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C439">
         <v>0.1</v>
@@ -10523,7 +10523,7 @@
         <v>9</v>
       </c>
       <c r="B440">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C440">
         <v>0.1</v>
@@ -10546,7 +10546,7 @@
         <v>9</v>
       </c>
       <c r="B441">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C441">
         <v>5.0000000000000001E-3</v>
@@ -10569,7 +10569,7 @@
         <v>9</v>
       </c>
       <c r="B442">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C442">
         <v>5.0000000000000001E-3</v>
@@ -10592,7 +10592,7 @@
         <v>9</v>
       </c>
       <c r="B443">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C443">
         <v>5.0000000000000001E-3</v>
@@ -10615,7 +10615,7 @@
         <v>9</v>
       </c>
       <c r="B444">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C444">
         <v>0.01</v>
@@ -10638,7 +10638,7 @@
         <v>9</v>
       </c>
       <c r="B445">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C445">
         <v>0.01</v>
@@ -10661,7 +10661,7 @@
         <v>9</v>
       </c>
       <c r="B446">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C446">
         <v>0.01</v>
@@ -10684,7 +10684,7 @@
         <v>9</v>
       </c>
       <c r="B447">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C447">
         <v>0.1</v>
@@ -10707,7 +10707,7 @@
         <v>9</v>
       </c>
       <c r="B448">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C448">
         <v>0.1</v>
@@ -10730,7 +10730,7 @@
         <v>9</v>
       </c>
       <c r="B449">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C449">
         <v>0.1</v>
